--- a/web/sheet/Book1.xlsx
+++ b/web/sheet/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>question</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>Easy</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,8 +465,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -491,8 +494,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
